--- a/experiment/jsp/my_ur_result70.xlsx
+++ b/experiment/jsp/my_ur_result70.xlsx
@@ -433,7 +433,7 @@
         <v>0.7358324145534729</v>
       </c>
       <c r="F2">
-        <v>0.5985650224215247</v>
+        <v>0.6796334012219959</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -453,7 +453,7 @@
         <v>0.7094080338266384</v>
       </c>
       <c r="F3">
-        <v>0.7041972717733473</v>
+        <v>0.6751509054325956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,7 +473,7 @@
         <v>0.7001063829787235</v>
       </c>
       <c r="F4">
-        <v>0.7478409090909091</v>
+        <v>0.6941983122362869</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,7 +493,7 @@
         <v>0.7192734611503532</v>
       </c>
       <c r="F5">
-        <v>0.6893617021276596</v>
+        <v>0.6593894542090657</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -510,10 +510,10 @@
         <v>0.7106846473029046</v>
       </c>
       <c r="E6">
-        <v>0.7173821989528796</v>
+        <v>0.6837325349301397</v>
       </c>
       <c r="F6">
-        <v>0.749562363238512</v>
+        <v>0.7106846473029046</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -533,7 +533,7 @@
         <v>0.7098703888334995</v>
       </c>
       <c r="F7">
-        <v>0.7228426395939087</v>
+        <v>0.6946341463414634</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -553,7 +553,7 @@
         <v>0.7131889763779528</v>
       </c>
       <c r="F8">
-        <v>0.6987463837994214</v>
+        <v>0.6605287146763902</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -570,10 +570,10 @@
         <v>0.7299262381454164</v>
       </c>
       <c r="E9">
-        <v>0.7133882595262615</v>
+        <v>0.7440386680988185</v>
       </c>
       <c r="F9">
-        <v>0.6817913385826772</v>
+        <v>0.7827118644067796</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -593,7 +593,7 @@
         <v>0.6789115646258503</v>
       </c>
       <c r="F10">
-        <v>0.6133450395083406</v>
+        <v>0.6528971962616822</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -613,7 +613,7 @@
         <v>0.6976821192052981</v>
       </c>
       <c r="F11">
-        <v>0.6760427807486631</v>
+        <v>0.6667721518987342</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -633,7 +633,7 @@
         <v>0.6649312377210216</v>
       </c>
       <c r="F12">
-        <v>0.6742031872509961</v>
+        <v>0.622723091076357</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -653,7 +653,7 @@
         <v>0.7008298755186722</v>
       </c>
       <c r="F13">
-        <v>0.6521235521235521</v>
+        <v>0.6824242424242424</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -673,7 +673,7 @@
         <v>0.7042532146389713</v>
       </c>
       <c r="F14">
-        <v>0.6994106090373281</v>
+        <v>0.6800382043935052</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -693,7 +693,7 @@
         <v>0.7230849947534103</v>
       </c>
       <c r="F15">
-        <v>0.7307529162248144</v>
+        <v>0.7268987341772152</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -710,10 +710,10 @@
         <v>0.7212614445574771</v>
       </c>
       <c r="E16">
-        <v>0.7075848303393214</v>
+        <v>0.7061752988047809</v>
       </c>
       <c r="F16">
-        <v>0.6964636542239686</v>
+        <v>0.7550585729499468</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -733,7 +733,7 @@
         <v>0.7168574401664932</v>
       </c>
       <c r="F17">
-        <v>0.6720975609756097</v>
+        <v>0.6480714957666981</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -770,10 +770,10 @@
         <v>0.6993963782696176</v>
       </c>
       <c r="E19">
-        <v>0.7234131113423518</v>
+        <v>0.727958115183246</v>
       </c>
       <c r="F19">
-        <v>0.6769230769230768</v>
+        <v>0.661465271170314</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -793,7 +793,7 @@
         <v>0.6772296015180266</v>
       </c>
       <c r="F20">
-        <v>0.6772296015180266</v>
+        <v>0.6903288201160541</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -810,10 +810,10 @@
         <v>0.6078192875760209</v>
       </c>
       <c r="E21">
-        <v>0.6975074775672981</v>
+        <v>0.7031155778894472</v>
       </c>
       <c r="F21">
-        <v>0.6556701030927834</v>
+        <v>0.6365787079162875</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -833,7 +833,7 @@
         <v>0.6565826330532213</v>
       </c>
       <c r="F22">
-        <v>0.6369565217391304</v>
+        <v>0.7053159478435307</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -853,7 +853,7 @@
         <v>0.7369473684210526</v>
       </c>
       <c r="F23">
-        <v>0.7093211752786222</v>
+        <v>0.7519871106337271</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -873,7 +873,7 @@
         <v>0.7689545934530094</v>
       </c>
       <c r="F24">
-        <v>0.7855447680690398</v>
+        <v>0.7491769547325102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -893,7 +893,7 @@
         <v>0.8038194444444444</v>
       </c>
       <c r="F25">
-        <v>0.6917330677290837</v>
+        <v>0.6951951951951952</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -913,7 +913,7 @@
         <v>0.7136645962732919</v>
       </c>
       <c r="F26">
-        <v>0.6330578512396695</v>
+        <v>0.6792118226600985</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -933,7 +933,7 @@
         <v>0.6822565091610414</v>
       </c>
       <c r="F27">
-        <v>0.6842359767891683</v>
+        <v>0.7455216016859854</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -953,7 +953,7 @@
         <v>0.6967519685039371</v>
       </c>
       <c r="F28">
-        <v>0.7186802030456853</v>
+        <v>0.667200754005655</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -973,7 +973,7 @@
         <v>0.6620075046904315</v>
       </c>
       <c r="F29">
-        <v>0.6421292083712465</v>
+        <v>0.6818357487922706</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -993,7 +993,7 @@
         <v>0.7497876857749468</v>
       </c>
       <c r="F30">
-        <v>0.6791346153846154</v>
+        <v>0.7839067702552719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>0.6876172607879925</v>
       </c>
       <c r="F31">
-        <v>0.6544642857142857</v>
+        <v>0.6441124780316345</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>0.7210855949895616</v>
       </c>
       <c r="F32">
-        <v>0.695669687814703</v>
+        <v>0.7218390804597702</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1053,7 +1053,7 @@
         <v>0.7019841269841269</v>
       </c>
       <c r="F33">
-        <v>0.7076</v>
+        <v>0.6564007421150279</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>0.6509971509971509</v>
       </c>
       <c r="F34">
-        <v>0.7284803400637619</v>
+        <v>0.6917255297679111</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>0.7413865546218489</v>
       </c>
       <c r="F35">
-        <v>0.7015904572564612</v>
+        <v>0.6780019212295869</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1113,7 +1113,7 @@
         <v>0.7466535433070867</v>
       </c>
       <c r="F36">
-        <v>0.7408203125</v>
+        <v>0.741544477028348</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>0.7633707865168539</v>
       </c>
       <c r="F37">
-        <v>0.6848790322580646</v>
+        <v>0.6961065573770492</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>0.7361658031088083</v>
       </c>
       <c r="F38">
-        <v>0.7293634496919917</v>
+        <v>0.7054617676266137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>0.7172277227722772</v>
       </c>
       <c r="F39">
-        <v>0.6695009242144178</v>
+        <v>0.674487895716946</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>0.6439890710382513</v>
       </c>
       <c r="F40">
-        <v>0.6838491295938104</v>
+        <v>0.73579604578564</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1213,7 +1213,7 @@
         <v>0.7446644664466447</v>
       </c>
       <c r="F41">
-        <v>0.7201063829787234</v>
+        <v>0.6655850540806293</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1233,7 +1233,7 @@
         <v>0.6820224719101123</v>
       </c>
       <c r="F42">
-        <v>0.7425076452599388</v>
+        <v>0.7148184494602552</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1273,7 +1273,7 @@
         <v>0.6417414721723518</v>
       </c>
       <c r="F44">
-        <v>0.6828080229226361</v>
+        <v>0.6522810218978102</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1293,7 +1293,7 @@
         <v>0.7566920565832427</v>
       </c>
       <c r="F45">
-        <v>0.6784390243902438</v>
+        <v>0.6797653958944283</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1313,7 +1313,7 @@
         <v>0.7270551508844952</v>
       </c>
       <c r="F46">
-        <v>0.7217975206611571</v>
+        <v>0.6783495145631068</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1333,7 +1333,7 @@
         <v>0.6382409177820267</v>
       </c>
       <c r="F47">
-        <v>0.7280261723009814</v>
+        <v>0.686125385405961</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>0.6555947136563878</v>
       </c>
       <c r="F48">
-        <v>0.7224271844660194</v>
+        <v>0.6902597402597402</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1370,10 +1370,10 @@
         <v>0.676162215628091</v>
       </c>
       <c r="E49">
-        <v>0.7143155694879832</v>
+        <v>0.7120833333333333</v>
       </c>
       <c r="F49">
-        <v>0.6708537782139352</v>
+        <v>0.7165618448637316</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1393,7 +1393,7 @@
         <v>0.7067336683417085</v>
       </c>
       <c r="F50">
-        <v>0.6278571428571428</v>
+        <v>0.6381125226860254</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1413,7 +1413,7 @@
         <v>0.6858585858585859</v>
       </c>
       <c r="F51">
-        <v>0.7308934337997848</v>
+        <v>0.6907426246185147</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1430,10 +1430,10 @@
         <v>0.6689423076923078</v>
       </c>
       <c r="E52">
-        <v>0.6708775313404051</v>
+        <v>0.6514044943820225</v>
       </c>
       <c r="F52">
-        <v>0.7048632218844986</v>
+        <v>0.676750972762646</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1453,7 +1453,7 @@
         <v>0.6828846153846154</v>
       </c>
       <c r="F53">
-        <v>0.6888457807953443</v>
+        <v>0.6725378787878789</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1473,7 +1473,7 @@
         <v>0.7512030798845044</v>
       </c>
       <c r="F54">
-        <v>0.7490403071017274</v>
+        <v>0.6888790820829656</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1493,7 +1493,7 @@
         <v>0.7286311389759665</v>
       </c>
       <c r="F55">
-        <v>0.7100814663951122</v>
+        <v>0.7489795918367346</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1513,7 +1513,7 @@
         <v>0.7613043478260869</v>
       </c>
       <c r="F56">
-        <v>0.7341719077568134</v>
+        <v>0.7110659898477156</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1533,7 +1533,7 @@
         <v>0.7737612612612612</v>
       </c>
       <c r="F57">
-        <v>0.6954453441295546</v>
+        <v>0.7906789413118528</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>0.696311475409836</v>
       </c>
       <c r="F58">
-        <v>0.6484732824427482</v>
+        <v>0.6702169625246548</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1573,7 +1573,7 @@
         <v>0.6804855275443511</v>
       </c>
       <c r="F59">
-        <v>0.6792171481826654</v>
+        <v>0.6478222222222223</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1593,7 +1593,7 @@
         <v>0.69493545183714</v>
       </c>
       <c r="F60">
-        <v>0.6570892018779343</v>
+        <v>0.7033165829145729</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1613,7 +1613,7 @@
         <v>0.7054711246200608</v>
       </c>
       <c r="F61">
-        <v>0.6887240356083086</v>
+        <v>0.6806451612903227</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1630,10 +1630,10 @@
         <v>0.7106557377049179</v>
       </c>
       <c r="E62">
-        <v>0.6949899799599197</v>
+        <v>0.7006060606060607</v>
       </c>
       <c r="F62">
-        <v>0.6669230769230768</v>
+        <v>0.6682080924855491</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1653,7 +1653,7 @@
         <v>0.708252427184466</v>
       </c>
       <c r="F63">
-        <v>0.7055125725338491</v>
+        <v>0.6941008563273072</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1673,7 +1673,7 @@
         <v>0.6441882804995196</v>
       </c>
       <c r="F64">
-        <v>0.6920536635706915</v>
+        <v>0.6699300699300699</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1690,10 +1690,10 @@
         <v>0.6896484375</v>
       </c>
       <c r="E65">
-        <v>0.7333333333333334</v>
+        <v>0.7287925696594428</v>
       </c>
       <c r="F65">
-        <v>0.66559849198869</v>
+        <v>0.7302998965873837</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1713,7 +1713,7 @@
         <v>0.646559849198869</v>
       </c>
       <c r="F66">
-        <v>0.6393289841565704</v>
+        <v>0.6429240862230553</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1733,7 +1733,7 @@
         <v>0.8129692832764505</v>
       </c>
       <c r="F67">
-        <v>0.6812202097235462</v>
+        <v>0.732172131147541</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1753,7 +1753,7 @@
         <v>0.6797058823529413</v>
       </c>
       <c r="F68">
-        <v>0.6823818897637796</v>
+        <v>0.6698550724637681</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1773,7 +1773,7 @@
         <v>0.7212244897959185</v>
       </c>
       <c r="F69">
-        <v>0.7146612740141557</v>
+        <v>0.711066398390342</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>0.6975514201762978</v>
       </c>
       <c r="F70">
-        <v>0.6725212464589234</v>
+        <v>0.760897435897436</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>0.6813542688910696</v>
       </c>
       <c r="F71">
-        <v>0.6881070366699702</v>
+        <v>0.7091930541368743</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1830,10 +1830,10 @@
         <v>0.7159552845528456</v>
       </c>
       <c r="E72">
-        <v>0.6954590325765053</v>
+        <v>0.6677725118483412</v>
       </c>
       <c r="F72">
-        <v>0.7384696016771488</v>
+        <v>0.6658790170132326</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1850,10 +1850,10 @@
         <v>0.7030601092896175</v>
       </c>
       <c r="E73">
-        <v>0.716369710467706</v>
+        <v>0.7147777777777777</v>
       </c>
       <c r="F73">
-        <v>0.6550916496945011</v>
+        <v>0.6604722792607802</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1873,7 +1873,7 @@
         <v>0.7492012779552717</v>
       </c>
       <c r="F74">
-        <v>0.7049098196392787</v>
+        <v>0.6630537229029217</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1893,7 +1893,7 @@
         <v>0.7432773109243697</v>
       </c>
       <c r="F75">
-        <v>0.6576208178438661</v>
+        <v>0.7309917355371901</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>0.7169312169312169</v>
       </c>
       <c r="F76">
-        <v>0.6955852156057495</v>
+        <v>0.6741293532338308</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1933,7 +1933,7 @@
         <v>0.7708287292817679</v>
       </c>
       <c r="F77">
-        <v>0.6872906403940886</v>
+        <v>0.7082233502538071</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1953,7 +1953,7 @@
         <v>0.7276824034334763</v>
       </c>
       <c r="F78">
-        <v>0.6955897435897436</v>
+        <v>0.7469162995594714</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1970,10 +1970,10 @@
         <v>0.7517876489707476</v>
       </c>
       <c r="E79">
-        <v>0.6987915407854984</v>
+        <v>0.6646551724137931</v>
       </c>
       <c r="F79">
-        <v>0.7051829268292684</v>
+        <v>0.7190673575129534</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1990,10 +1990,10 @@
         <v>0.6771535580524344</v>
       </c>
       <c r="E80">
-        <v>0.7083251714005876</v>
+        <v>0.7196019900497512</v>
       </c>
       <c r="F80">
-        <v>0.7014548981571289</v>
+        <v>0.7312436804853386</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2013,7 +2013,7 @@
         <v>0.6768463073852296</v>
       </c>
       <c r="F81">
-        <v>0.6822937625754527</v>
+        <v>0.7049896049896049</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2030,10 +2030,10 @@
         <v>0.7424180327868852</v>
       </c>
       <c r="E82">
-        <v>0.6581289736603088</v>
+        <v>0.653971119133574</v>
       </c>
       <c r="F82">
-        <v>0.6709259259259259</v>
+        <v>0.6653810835629017</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2053,7 +2053,7 @@
         <v>0.707843137254902</v>
       </c>
       <c r="F83">
-        <v>0.6942307692307692</v>
+        <v>0.6563636363636363</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2073,7 +2073,7 @@
         <v>0.6010152284263959</v>
       </c>
       <c r="F84">
-        <v>0.6639252336448599</v>
+        <v>0.6571692876965772</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2093,7 +2093,7 @@
         <v>0.6579403272377287</v>
       </c>
       <c r="F85">
-        <v>0.706198347107438</v>
+        <v>0.7374325782092772</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2113,7 +2113,7 @@
         <v>0.6681132075471699</v>
       </c>
       <c r="F86">
-        <v>0.6770554493307839</v>
+        <v>0.6403254972875226</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2133,7 +2133,7 @@
         <v>0.7408602150537634</v>
       </c>
       <c r="F87">
-        <v>0.6973684210526316</v>
+        <v>0.7103092783505154</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2153,7 +2153,7 @@
         <v>0.5924463519313304</v>
       </c>
       <c r="F88">
-        <v>0.6915831663326653</v>
+        <v>0.6779960707269155</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2173,7 +2173,7 @@
         <v>0.7542696629213482</v>
       </c>
       <c r="F89">
-        <v>0.6934917355371901</v>
+        <v>0.6672962226640159</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2193,7 +2193,7 @@
         <v>0.6733870967741936</v>
       </c>
       <c r="F90">
-        <v>0.6781725888324874</v>
+        <v>0.7167381974248926</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>0.7032467532467532</v>
       </c>
       <c r="F91">
-        <v>0.7550796812749003</v>
+        <v>0.6993542435424354</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>0.6257090576395242</v>
       </c>
       <c r="F92">
-        <v>0.6397567820392891</v>
+        <v>0.6464083175803403</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2253,7 +2253,7 @@
         <v>0.6527696793002915</v>
       </c>
       <c r="F93">
-        <v>0.7381318681318682</v>
+        <v>0.7513422818791947</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2273,7 +2273,7 @@
         <v>0.775</v>
       </c>
       <c r="F94">
-        <v>0.7130306021717669</v>
+        <v>0.6814150943396227</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2293,7 +2293,7 @@
         <v>0.7354037267080746</v>
       </c>
       <c r="F95">
-        <v>0.6505494505494507</v>
+        <v>0.6614525139664804</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>0.6482591876208897</v>
       </c>
       <c r="F96">
-        <v>0.6938923395445135</v>
+        <v>0.6689620758483034</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2333,7 +2333,7 @@
         <v>0.7132113821138212</v>
       </c>
       <c r="F97">
-        <v>0.7018000000000001</v>
+        <v>0.7815144766146993</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2353,7 +2353,7 @@
         <v>0.6987279843444227</v>
       </c>
       <c r="F98">
-        <v>0.6892857142857143</v>
+        <v>0.6370205173951828</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2373,7 +2373,7 @@
         <v>0.7531353135313532</v>
       </c>
       <c r="F99">
-        <v>0.7229144667370645</v>
+        <v>0.7481967213114754</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2393,7 +2393,7 @@
         <v>0.743940990516333</v>
       </c>
       <c r="F100">
-        <v>0.7152988855116515</v>
+        <v>0.692156862745098</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2413,7 +2413,7 @@
         <v>0.7407135362014691</v>
       </c>
       <c r="F101">
-        <v>0.7517571884984025</v>
+        <v>0.7173780487804878</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2466,7 @@
         <v>0.0962497994972903</v>
       </c>
       <c r="F2">
-        <v>0.07829467994981373</v>
+        <v>0.08889874556419787</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0.05814232167067</v>
       </c>
       <c r="F3">
-        <v>0.05771525320089594</v>
+        <v>0.0553346441654465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0.1064440781988951</v>
       </c>
       <c r="F4">
-        <v>0.1137016289851834</v>
+        <v>0.1055458159356133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0.07686500872039066</v>
       </c>
       <c r="F5">
-        <v>0.07366849481809201</v>
+        <v>0.0704655167825228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>0.05907847111729157</v>
       </c>
       <c r="E6">
-        <v>0.05963523157808279</v>
+        <v>0.05683797021663579</v>
       </c>
       <c r="F6">
-        <v>0.06231033496397054</v>
+        <v>0.05907847111729157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0.07048507933054292</v>
       </c>
       <c r="F7">
-        <v>0.07177313154165942</v>
+        <v>0.06897222884735078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0.04284651294618201</v>
       </c>
       <c r="F8">
-        <v>0.04197884007070483</v>
+        <v>0.03968282329382036</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>0.04922232865703791</v>
       </c>
       <c r="E9">
-        <v>0.04810709566995775</v>
+        <v>0.05017399559133078</v>
       </c>
       <c r="F9">
-        <v>0.04597636800741037</v>
+        <v>0.05278190948647341</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0.06257809207647426</v>
       </c>
       <c r="F10">
-        <v>0.05653455377233715</v>
+        <v>0.06018023995017945</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0.09169714604124021</v>
       </c>
       <c r="F11">
-        <v>0.08885306343675252</v>
+        <v>0.08763461425460299</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0.09627566018633935</v>
       </c>
       <c r="F12">
-        <v>0.09761814947180621</v>
+        <v>0.09016432573108872</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0.08658216009343658</v>
       </c>
       <c r="F13">
-        <v>0.08056486711396997</v>
+        <v>0.08430828518189178</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0.06465847453989247</v>
       </c>
       <c r="F14">
-        <v>0.06421386813342955</v>
+        <v>0.06243526051559814</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0.04847451413002911</v>
       </c>
       <c r="F15">
-        <v>0.04898855987902197</v>
+        <v>0.04873018139864737</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>0.02790057455133479</v>
       </c>
       <c r="E16">
-        <v>0.02737152174048114</v>
+        <v>0.02731699679677501</v>
       </c>
       <c r="F16">
-        <v>0.02694132100585667</v>
+        <v>0.02920794971667957</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0.1131649383316361</v>
       </c>
       <c r="F17">
-        <v>0.1060990299870267</v>
+        <v>0.1023062142396071</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>0.09665469069919712</v>
       </c>
       <c r="E19">
-        <v>0.0999737383506784</v>
+        <v>0.1006018456073319</v>
       </c>
       <c r="F19">
-        <v>0.09354894114411093</v>
+        <v>0.09141271413415976</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0.06401861976154699</v>
       </c>
       <c r="F20">
-        <v>0.06401861976154699</v>
+        <v>0.0652568909368187</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>0.05004706039615419</v>
       </c>
       <c r="E21">
-        <v>0.05743187090326366</v>
+        <v>0.05789363468942059</v>
       </c>
       <c r="F21">
-        <v>0.05398703516023758</v>
+        <v>0.05241507417286032</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0.05809847641595917</v>
       </c>
       <c r="F22">
-        <v>0.05636183717526477</v>
+        <v>0.06241070034251986</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0.06122923640371257</v>
       </c>
       <c r="F23">
-        <v>0.05893391548482971</v>
+        <v>0.06247881265684954</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0.03270018932839044</v>
       </c>
       <c r="F24">
-        <v>0.03340569503126833</v>
+        <v>0.031859135076117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0.09635755541254824</v>
       </c>
       <c r="F25">
-        <v>0.0829212429048224</v>
+        <v>0.08333626414058226</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0.09491031902223254</v>
       </c>
       <c r="F26">
-        <v>0.0841904207304652</v>
+        <v>0.09032844155219372</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0.06469035939160582</v>
       </c>
       <c r="F27">
-        <v>0.06487804902233582</v>
+        <v>0.07068904392949972</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0.03657512628795322</v>
       </c>
       <c r="F28">
-        <v>0.03772622163305631</v>
+        <v>0.03502387210985904</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0.05800992513197636</v>
       </c>
       <c r="F29">
-        <v>0.05626804384957851</v>
+        <v>0.05974742047409353</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0.03273376555230258</v>
       </c>
       <c r="F30">
-        <v>0.02964923764448941</v>
+        <v>0.03422331537210766</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0.05779707992776496</v>
       </c>
       <c r="F31">
-        <v>0.05501043500267629</v>
+        <v>0.0541403226739872</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0.03659345071332859</v>
       </c>
       <c r="F32">
-        <v>0.03530365134276815</v>
+        <v>0.03663168838387542</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0.07285448433784315</v>
       </c>
       <c r="F33">
-        <v>0.07343732021254587</v>
+        <v>0.06812367366655461</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0.09578022919470322</v>
       </c>
       <c r="F34">
-        <v>0.1071802139660175</v>
+        <v>0.1017725341493668</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0.109587371499142</v>
       </c>
       <c r="F35">
-        <v>0.1037049479793073</v>
+        <v>0.1002182302278416</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0.07039321636642142</v>
       </c>
       <c r="F36">
-        <v>0.06984326936355875</v>
+        <v>0.06991154235413896</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0.08049869811953191</v>
       </c>
       <c r="F37">
-        <v>0.07222161424030583</v>
+        <v>0.07340557512949118</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0.06507111943026868</v>
       </c>
       <c r="F38">
-        <v>0.06446984625278163</v>
+        <v>0.06235713033784439</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0.06815765643544014</v>
       </c>
       <c r="F39">
-        <v>0.06362221164491176</v>
+        <v>0.06409612011154052</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0.05328522681846784</v>
       </c>
       <c r="F40">
-        <v>0.05658334530626467</v>
+        <v>0.06088155988207875</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0.07455540588129166</v>
       </c>
       <c r="F41">
-        <v>0.07209666377244056</v>
+        <v>0.06663801764611024</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0.05407933633843102</v>
       </c>
       <c r="F42">
-        <v>0.05887536310850592</v>
+        <v>0.05667981472958226</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0.07276462544510685</v>
       </c>
       <c r="F44">
-        <v>0.07742100548791693</v>
+        <v>0.07395966491409584</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0.08029435723127094</v>
       </c>
       <c r="F45">
-        <v>0.07199074565418342</v>
+        <v>0.07213149002496384</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0.07258771257442903</v>
       </c>
       <c r="F46">
-        <v>0.07206280142977924</v>
+        <v>0.06772504056701582</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0.08295084457871553</v>
       </c>
       <c r="F47">
-        <v>0.09462004736023602</v>
+        <v>0.08917428923878359</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0.04190434709825169</v>
       </c>
       <c r="F48">
-        <v>0.04617614947234528</v>
+        <v>0.04412006860530211</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3403,10 +3403,10 @@
         <v>0.07776795863913329</v>
       </c>
       <c r="E49">
-        <v>0.08215611931469569</v>
+        <v>0.08189938144183723</v>
       </c>
       <c r="F49">
-        <v>0.07715741529358563</v>
+        <v>0.08241447189115698</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0.06320609327441831</v>
       </c>
       <c r="F50">
-        <v>0.0561518417928984</v>
+        <v>0.05706902251183869</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0.08003799730216656</v>
       </c>
       <c r="F51">
-        <v>0.08529345245333142</v>
+        <v>0.0806079525220192</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>0.06045783471235559</v>
       </c>
       <c r="E52">
-        <v>0.06063273683784938</v>
+        <v>0.05887279784723763</v>
       </c>
       <c r="F52">
-        <v>0.06370430405354592</v>
+        <v>0.06116356819148815</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0.1045566860211052</v>
       </c>
       <c r="F53">
-        <v>0.1054694019999509</v>
+        <v>0.1029724938086642</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0.05227738579767917</v>
       </c>
       <c r="F54">
-        <v>0.0521268750900083</v>
+        <v>0.04794016226283198</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0.07046135926778752</v>
       </c>
       <c r="F55">
-        <v>0.06866753647583772</v>
+        <v>0.07242913084776867</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0.04326633131351459</v>
       </c>
       <c r="F56">
-        <v>0.04172434466292811</v>
+        <v>0.04041119269891717</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0.06239480636929538</v>
       </c>
       <c r="F57">
-        <v>0.05607954256673511</v>
+        <v>0.06375901962708204</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0.06600015065988196</v>
       </c>
       <c r="F58">
-        <v>0.06146578916416488</v>
+        <v>0.06352677223278577</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0.06895258891449976</v>
       </c>
       <c r="F59">
-        <v>0.06882406591559109</v>
+        <v>0.06564286464660378</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0.08321818866672767</v>
       </c>
       <c r="F60">
-        <v>0.07868611829802323</v>
+        <v>0.08422182511295956</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0.06611444933859364</v>
       </c>
       <c r="F61">
-        <v>0.06454496686171307</v>
+        <v>0.06378784115072524</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>0.09165381385222121</v>
       </c>
       <c r="E62">
-        <v>0.08963338909796385</v>
+        <v>0.09035769931289687</v>
       </c>
       <c r="F62">
-        <v>0.086013579153623</v>
+        <v>0.08617930859322534</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0.06354329993131304</v>
       </c>
       <c r="F63">
-        <v>0.06329748445769094</v>
+        <v>0.06227364312964074</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0.09595786919604143</v>
       </c>
       <c r="F64">
-        <v>0.1030878656688123</v>
+        <v>0.09979234948359554</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>0.05133561589174104</v>
       </c>
       <c r="E65">
-        <v>0.05458740464500812</v>
+        <v>0.05424940213946627</v>
       </c>
       <c r="F65">
-        <v>0.0495454011999461</v>
+        <v>0.05436160359166785</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0.08007428232897056</v>
       </c>
       <c r="F66">
-        <v>0.07917876379407061</v>
+        <v>0.07962400520247212</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0.07673608562666059</v>
       </c>
       <c r="F67">
-        <v>0.06430030435255928</v>
+        <v>0.06910965088712571</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0.0634171272302979</v>
       </c>
       <c r="F68">
-        <v>0.06366680095955105</v>
+        <v>0.06249803842985879</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0.06797143972342942</v>
       </c>
       <c r="F69">
-        <v>0.06735289274920209</v>
+        <v>0.06701409550197268</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0.03338067250334464</v>
       </c>
       <c r="F70">
-        <v>0.03218287688943804</v>
+        <v>0.03641203699349879</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0.06039922615578712</v>
       </c>
       <c r="F71">
-        <v>0.06099783097398125</v>
+        <v>0.06286701884856698</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>0.04095982342861187</v>
       </c>
       <c r="E72">
-        <v>0.03978723223470292</v>
+        <v>0.03820328554858204</v>
       </c>
       <c r="F72">
-        <v>0.04224786819051788</v>
+        <v>0.03809495865194144</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>0.09702068453801072</v>
       </c>
       <c r="E73">
-        <v>0.09885737901144745</v>
+        <v>0.09863769594697758</v>
       </c>
       <c r="F73">
-        <v>0.09040114699824828</v>
+        <v>0.09114366155264868</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0.06526970538941032</v>
       </c>
       <c r="F74">
-        <v>0.06141107551167967</v>
+        <v>0.05776461202700878</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0.09808607323606067</v>
       </c>
       <c r="F75">
-        <v>0.0867824737181503</v>
+        <v>0.09646481582720014</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0.08454655612981025</v>
       </c>
       <c r="F76">
-        <v>0.08202925620397403</v>
+        <v>0.07949900053997085</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0.06561935924933583</v>
       </c>
       <c r="F77">
-        <v>0.05850790159669844</v>
+        <v>0.06028986814279082</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0.08434841375192795</v>
       </c>
       <c r="F78">
-        <v>0.08062843242748395</v>
+        <v>0.08657788724316835</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>0.06578166005366834</v>
       </c>
       <c r="E79">
-        <v>0.06114448361483974</v>
+        <v>0.05815754044974702</v>
       </c>
       <c r="F79">
-        <v>0.06170373194058525</v>
+        <v>0.06291862407205789</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>0.0580581729675507</v>
       </c>
       <c r="E80">
-        <v>0.0607307823010227</v>
+        <v>0.06169764052671062</v>
       </c>
       <c r="F80">
-        <v>0.06014173494601764</v>
+        <v>0.06269578233502948</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0.08030032154898234</v>
       </c>
       <c r="F81">
-        <v>0.0809466018028977</v>
+        <v>0.08363921225787974</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>0.08585698767547263</v>
       </c>
       <c r="E82">
-        <v>0.07610937327090037</v>
+        <v>0.07562853788019971</v>
       </c>
       <c r="F82">
-        <v>0.07758927775116788</v>
+        <v>0.07694804405074501</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0.06393028931250164</v>
       </c>
       <c r="F83">
-        <v>0.06270086067187661</v>
+        <v>0.05928081372613789</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0.09525054551259313</v>
       </c>
       <c r="F84">
-        <v>0.1052206960709206</v>
+        <v>0.1041499951858326</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0.05872323497795563</v>
       </c>
       <c r="F85">
-        <v>0.06303041440299162</v>
+        <v>0.06581816735932673</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0.07455433030084392</v>
       </c>
       <c r="F86">
-        <v>0.07555218940620893</v>
+        <v>0.07145351728652309</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0.07820834524108407</v>
       </c>
       <c r="F87">
-        <v>0.07361716707915809</v>
+        <v>0.07498325883938987</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0.08856755350897422</v>
       </c>
       <c r="F88">
-        <v>0.103387975789534</v>
+        <v>0.1013567778368909</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0.09354639444223534</v>
       </c>
       <c r="F89">
-        <v>0.08600856513800563</v>
+        <v>0.08275973265764358</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0.07923925738893867</v>
       </c>
       <c r="F90">
-        <v>0.07980237901505295</v>
+        <v>0.08434049713500766</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0.03637132647472761</v>
       </c>
       <c r="F91">
-        <v>0.03905208161330315</v>
+        <v>0.03617000916951693</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0.06902890372323478</v>
       </c>
       <c r="F92">
-        <v>0.0705786639564973</v>
+        <v>0.07131246859120567</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0.06098809778884123</v>
       </c>
       <c r="F93">
-        <v>0.06896346442276659</v>
+        <v>0.07019770987104877</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0.05854486679073729</v>
       </c>
       <c r="F94">
-        <v>0.05386358918950361</v>
+        <v>0.05147529797072373</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0.03930804172985538</v>
       </c>
       <c r="F95">
-        <v>0.03477249845333361</v>
+        <v>0.03535527775702076</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0.05903706784899165</v>
       </c>
       <c r="F96">
-        <v>0.06319288628970743</v>
+        <v>0.06092248318947839</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0.08141607682923235</v>
       </c>
       <c r="F97">
-        <v>0.08011341959996465</v>
+        <v>0.08921316213804527</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0.06537997632766405</v>
       </c>
       <c r="F98">
-        <v>0.06449646313404697</v>
+        <v>0.05960600874832528</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0.07302145419829244</v>
       </c>
       <c r="F99">
-        <v>0.07009134304778017</v>
+        <v>0.07254262499043478</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0.09633404020139613</v>
       </c>
       <c r="F100">
-        <v>0.09262513085220357</v>
+        <v>0.08962843544227933</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0.05263027764258522</v>
       </c>
       <c r="F101">
-        <v>0.05341496761808701</v>
+        <v>0.05097220995262574</v>
       </c>
     </row>
   </sheetData>
